--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,94 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowHeight="14840"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
   <si>
     <t>Questions</t>
-  </si>
-  <si>
-    <t>Show me all code reviews pending approval across the team.</t>
-  </si>
-  <si>
-    <t>Show me all code reviews that 'DESKTOP27\Supriya' have been assigned to review.</t>
-  </si>
-  <si>
-    <t>How many tasks are unassigned?</t>
-  </si>
-  <si>
-    <t>are there any active bugs assigned to 'Supriya'?</t>
-  </si>
-  <si>
-    <t>Are there any dependencies that could delay work in the current/active sprint?</t>
-  </si>
-  <si>
-    <t>Are there any tasks assigned to 'Pavan'?</t>
-  </si>
-  <si>
-    <t>Are we at risk of not completing all active sprint tasks?</t>
-  </si>
-  <si>
-    <t>Are we likely to complete all assigned tasks within sprint duration for 'Demo sprint 10'?</t>
-  </si>
-  <si>
-    <t>Are we on track to complete all planned work for this sprint?</t>
-  </si>
-  <si>
-    <t>Are we progressing as expected to finish all sprint work on time?</t>
-  </si>
-  <si>
-    <t>Compare 'Supriya' and 'Rohit' by their tasks</t>
-  </si>
-  <si>
-    <t>Do we have any blockers preventing sprint completion?</t>
-  </si>
-  <si>
-    <t>Give me the details of the tasks '120'</t>
-  </si>
-  <si>
-    <t>How does our current sprint velocity compare to previous sprints?</t>
-  </si>
-  <si>
-    <t>How many bugs were reopened today?</t>
-  </si>
-  <si>
-    <t>How many critical or high-priority bugs have been found in active sprint?</t>
-  </si>
-  <si>
-    <t>how many issues moved from To Do status category to In Progress status category in Sprint9 today?</t>
-  </si>
-  <si>
-    <t>How many projects do the tasks belong to?</t>
-  </si>
-  <si>
-    <t>How many sprints have tasks linked to them?</t>
-  </si>
-  <si>
-    <t>How many story points (or work items) are being completed per day?</t>
-  </si>
-  <si>
-    <t>how many story points completed in sprint9?</t>
-  </si>
-  <si>
-    <t>Show me branches using AZURE_REPOS_SERVER.</t>
-  </si>
-  <si>
-    <t>Fetch all branches event_time with Desc order for tool AZURE_REPOS_SERVER</t>
-  </si>
-  <si>
-    <t>Give me the details of pull request for number '411'</t>
   </si>
   <si>
     <t>Show me all branches in the toolName AZURE_REPOS_SERVER.</t>
@@ -628,32 +569,374 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -662,36 +945,318 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -702,10 +1267,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -743,71 +1308,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -835,7 +1400,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -858,11 +1423,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -871,13 +1436,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -887,7 +1452,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -896,7 +1461,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -905,7 +1470,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -913,10 +1478,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -976,1045 +1541,927 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A204"/>
+  <dimension ref="A1:A180"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" style="3" width="36.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="36.578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="51.75" customFormat="1" s="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="534.75" customFormat="1" s="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="152.25" customFormat="1" s="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="242.25" customFormat="1" s="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="411" customFormat="1" s="1">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="422.25" customFormat="1" s="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="771" customFormat="1" s="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="1119.75" customFormat="1" s="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="984.75" customFormat="1" s="1">
-      <c r="A10" s="2" t="s">
+    <row r="10" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="973.5" customFormat="1" s="1">
-      <c r="A11" s="2" t="s">
+    <row r="11" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="523.5" customFormat="1" s="1">
-      <c r="A12" s="2" t="s">
+    <row r="12" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="501" customFormat="1" s="1">
-      <c r="A13" s="2" t="s">
+    <row r="13" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="231" customFormat="1" s="1">
-      <c r="A14" s="2" t="s">
+    <row r="14" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="422.25" customFormat="1" s="1">
-      <c r="A15" s="2" t="s">
+    <row r="15" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="197.25" customFormat="1" s="1">
-      <c r="A16" s="2" t="s">
+    <row r="16" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="253.5" customFormat="1" s="1">
-      <c r="A17" s="2" t="s">
+    <row r="17" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="377.25" customFormat="1" s="1">
-      <c r="A18" s="2" t="s">
+    <row r="18" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="84.75" customFormat="1" s="1">
-      <c r="A19" s="2" t="s">
+    <row r="19" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="39.75" customFormat="1" s="1">
-      <c r="A20" s="2" t="s">
+    <row r="20" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="231" customFormat="1" s="1">
-      <c r="A21" s="2" t="s">
+    <row r="21" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="186" customFormat="1" s="1">
-      <c r="A22" s="2" t="s">
+    <row r="22" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="96" customFormat="1" s="1">
-      <c r="A23" s="2" t="s">
+    <row r="23" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="96" customFormat="1" s="1">
-      <c r="A24" s="2" t="s">
+    <row r="24" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A25" s="2" t="s">
+    <row r="25" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A26" s="2" t="s">
+    <row r="26" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A27" s="2" t="s">
+    <row r="27" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A28" s="2" t="s">
+    <row r="28" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A29" s="2" t="s">
+    <row r="29" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A30" s="2" t="s">
+    <row r="30" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A31" s="2" t="s">
+    <row r="31" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A32" s="2" t="s">
+    <row r="32" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A33" s="2" t="s">
+    <row r="33" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A34" s="2" t="s">
+    <row r="34" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A35" s="2" t="s">
+    <row r="35" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A36" s="2" t="s">
+    <row r="36" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A37" s="2" t="s">
+    <row r="37" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A38" s="2" t="s">
+    <row r="38" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A39" s="2" t="s">
+    <row r="39" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A40" s="2" t="s">
+    <row r="40" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A41" s="2" t="s">
+    <row r="41" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A42" s="2" t="s">
+    <row r="42" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A43" s="2" t="s">
+    <row r="43" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A44" s="2" t="s">
+    <row r="44" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A45" s="2" t="s">
+    <row r="45" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A46" s="2" t="s">
+    <row r="46" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A47" s="2" t="s">
+    <row r="47" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A48" s="2" t="s">
+    <row r="48" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A49" s="2" t="s">
+    <row r="49" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A50" s="2" t="s">
+    <row r="50" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A51" s="2" t="s">
+    <row r="51" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A52" s="2" t="s">
+    <row r="52" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A53" s="2" t="s">
+    <row r="53" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A54" s="2" t="s">
+    <row r="54" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A55" s="2" t="s">
+    <row r="55" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A56" s="2" t="s">
+    <row r="56" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A57" s="2" t="s">
+    <row r="57" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A57" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A58" s="2" t="s">
+    <row r="59" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A59" s="2" t="s">
+    <row r="60" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A60" s="2" t="s">
+    <row r="61" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A61" s="2" t="s">
+    <row r="62" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A62" s="2" t="s">
+    <row r="63" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A63" s="2" t="s">
+    <row r="64" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A64" s="2" t="s">
+    <row r="65" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A65" s="2" t="s">
+    <row r="66" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A66" s="2" t="s">
+    <row r="67" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A67" s="2" t="s">
+    <row r="68" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A68" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A68" s="2" t="s">
+    <row r="69" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A69" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A69" s="2" t="s">
+    <row r="70" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A70" s="2" t="s">
+    <row r="71" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A71" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A71" s="2" t="s">
+    <row r="72" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A72" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A72" s="2" t="s">
+    <row r="73" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A73" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A73" s="2" t="s">
+    <row r="74" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A74" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A74" s="2" t="s">
+    <row r="75" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A75" s="2" t="s">
+    <row r="76" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A76" s="2" t="s">
+    <row r="77" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A77" s="2" t="s">
+    <row r="78" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A78" s="2" t="s">
+    <row r="79" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A79" s="2" t="s">
+    <row r="80" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A80" s="2" t="s">
+    <row r="81" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A81" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A82" s="2" t="s">
+    <row r="82" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A83" s="2" t="s">
+    <row r="83" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A83" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A84" s="2" t="s">
+    <row r="84" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A85" s="2" t="s">
+    <row r="85" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A86" s="2" t="s">
+    <row r="86" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A86" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A87" s="2" t="s">
+    <row r="87" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A88" s="2" t="s">
+    <row r="88" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A88" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A89" s="2" t="s">
+    <row r="89" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A89" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A90" s="2" t="s">
+    <row r="90" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A91" s="2" t="s">
+    <row r="91" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A92" s="2" t="s">
+    <row r="92" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A93" s="2" t="s">
+    <row r="93" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A94" s="2" t="s">
+    <row r="94" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A95" s="2" t="s">
+    <row r="95" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A95" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A96" s="2" t="s">
+    <row r="96" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A96" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A97" s="2" t="s">
+    <row r="97" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A97" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A98" s="2" t="s">
+    <row r="98" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A99" s="2" t="s">
+    <row r="99" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A99" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A100" s="2" t="s">
+    <row r="100" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A100" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A101" s="2" t="s">
+    <row r="101" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A101" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A102" s="2" t="s">
+    <row r="102" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A102" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A103" s="2" t="s">
+    <row r="103" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A103" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A104" s="2" t="s">
+    <row r="104" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A104" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A105" s="2" t="s">
+    <row r="105" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A105" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A106" s="2" t="s">
+    <row r="106" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A106" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A107" s="2" t="s">
+    <row r="107" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A108" s="2" t="s">
+    <row r="108" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A108" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A109" s="2" t="s">
+    <row r="109" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A110" s="2" t="s">
+    <row r="110" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A111" s="2" t="s">
+    <row r="111" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A112" s="2" t="s">
+    <row r="112" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A112" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A113" s="2" t="s">
+    <row r="113" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A114" s="2" t="s">
+    <row r="114" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A114" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A115" s="2" t="s">
+    <row r="115" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A116" s="2" t="s">
+    <row r="116" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A116" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A117" s="2" t="s">
+    <row r="117" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A117" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A118" s="2" t="s">
+    <row r="118" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A118" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A119" s="2" t="s">
+    <row r="119" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A119" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A120" s="2" t="s">
+    <row r="120" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A120" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A121" s="2" t="s">
+    <row r="121" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A121" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A122" s="2" t="s">
+    <row r="122" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A122" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A123" s="2" t="s">
+    <row r="123" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A123" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A124" s="2" t="s">
+    <row r="124" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A124" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A125" s="2" t="s">
+    <row r="125" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A125" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A126" s="2" t="s">
+    <row r="126" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A126" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A127" s="2" t="s">
+    <row r="127" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A127" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A128" s="2" t="s">
+    <row r="128" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A128" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A129" s="2" t="s">
+    <row r="129" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A129" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A130" s="2" t="s">
+    <row r="130" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A130" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A131" s="2" t="s">
+    <row r="131" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A131" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A132" s="2" t="s">
+    <row r="132" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A132" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A133" s="2" t="s">
+    <row r="133" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A133" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A134" s="2" t="s">
+    <row r="134" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A134" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A135" s="2" t="s">
+    <row r="135" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A135" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A136" s="2" t="s">
+    <row r="136" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A136" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A137" s="2" t="s">
+    <row r="137" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A137" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A138" s="2" t="s">
+    <row r="138" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A138" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A139" s="2" t="s">
+    <row r="139" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A139" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A140" s="2" t="s">
+    <row r="140" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A140" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A141" s="2" t="s">
+    <row r="141" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A141" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A142" s="2" t="s">
+    <row r="142" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A142" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A143" s="2" t="s">
+    <row r="143" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A143" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A144" s="2" t="s">
+    <row r="144" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A144" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A145" s="2" t="s">
+    <row r="145" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A145" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A146" s="2" t="s">
+    <row r="146" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A146" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A147" s="2" t="s">
+    <row r="147" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A147" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A148" s="2" t="s">
+    <row r="148" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A148" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A149" s="2" t="s">
+    <row r="149" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A149" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A150" s="2" t="s">
+    <row r="150" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A150" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A151" s="2" t="s">
+    <row r="151" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A151" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A152" s="2" t="s">
+    <row r="152" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A152" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A153" s="2" t="s">
+    <row r="153" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A153" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A154" s="2" t="s">
+    <row r="154" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A154" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A155" s="2" t="s">
+    <row r="155" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A155" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A156" s="2" t="s">
+    <row r="156" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A156" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A157" s="2" t="s">
+    <row r="157" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A157" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A158" s="2" t="s">
+    <row r="158" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A158" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A159" s="2" t="s">
+    <row r="159" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A159" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A160" s="2" t="s">
+    <row r="160" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A160" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A161" s="2" t="s">
+    <row r="161" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A161" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A162" s="2" t="s">
+    <row r="162" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A162" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A163" s="2" t="s">
+    <row r="163" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A163" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A164" s="2" t="s">
+    <row r="164" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A164" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A165" s="2" t="s">
+    <row r="165" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A165" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A166" s="2" t="s">
+    <row r="166" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A166" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A167" s="2" t="s">
+    <row r="167" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A167" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A168" s="2" t="s">
+    <row r="168" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A168" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A169" s="2" t="s">
+    <row r="169" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A169" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A170" s="2" t="s">
+    <row r="170" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A170" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A171" s="2" t="s">
+    <row r="171" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A171" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A172" s="2" t="s">
+    <row r="172" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A172" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A173" s="2" t="s">
+    <row r="173" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A173" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A174" s="2" t="s">
+    <row r="174" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A174" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A175" s="2" t="s">
+    <row r="175" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A175" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A176" s="2" t="s">
+    <row r="176" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A176" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A177" s="2" t="s">
+    <row r="177" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A177" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A178" s="2" t="s">
+    <row r="178" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A178" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A179" s="2" t="s">
+    <row r="179" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A179" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A180" s="2" t="s">
+    <row r="180" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A180" s="3" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A181" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A182" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A183" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A184" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A185" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A186" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A187" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A188" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A189" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A190" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A191" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A192" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A193" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A194" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A195" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A196" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A197" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A198" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A199" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A200" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A201" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A202" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A203" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A204" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14840"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="257">
   <si>
     <t>Questions</t>
   </si>
   <si>
+    <t>Show me all code reviews pending approval across the team.</t>
+  </si>
+  <si>
+    <t>How many tasks are unassigned?</t>
+  </si>
+  <si>
+    <t>are there any active bugs assigned to 'Supriya'?</t>
+  </si>
+  <si>
+    <t>Are there any dependencies that could delay work in the current/active sprint?</t>
+  </si>
+  <si>
+    <t>Are there any tasks assigned to 'Pavan'?</t>
+  </si>
+  <si>
+    <t>Are we at risk of not completing all active sprint tasks?</t>
+  </si>
+  <si>
+    <t>Are we likely to complete all assigned tasks within sprint duration for 'Demo sprint 10'?</t>
+  </si>
+  <si>
+    <t>Are we on track to complete all planned work for this sprint?</t>
+  </si>
+  <si>
+    <t>Are we progressing as expected to finish all sprint work on time?</t>
+  </si>
+  <si>
+    <t>Compare 'Supriya' and 'Rohit' by their tasks</t>
+  </si>
+  <si>
+    <t>Do we have any blockers preventing sprint completion?</t>
+  </si>
+  <si>
+    <t>Give me the details of the tasks '120'</t>
+  </si>
+  <si>
+    <t>How does our current sprint velocity compare to previous sprints?</t>
+  </si>
+  <si>
+    <t>How many bugs were reopened today?</t>
+  </si>
+  <si>
+    <t>How many critical or high-priority bugs have been found in active sprint?</t>
+  </si>
+  <si>
+    <t>how many issues moved from To Do status category to In Progress status category in Sprint9 today?</t>
+  </si>
+  <si>
+    <t>How many projects do the tasks belong to?</t>
+  </si>
+  <si>
+    <t>How many sprints have tasks linked to them?</t>
+  </si>
+  <si>
+    <t>How many story points (or work items) are being completed per day?</t>
+  </si>
+  <si>
+    <t>how many story points completed in sprint9?</t>
+  </si>
+  <si>
+    <t>Show me branches using AZURE_REPOS_SERVER.</t>
+  </si>
+  <si>
+    <t>Fetch all branches event_time with Desc order for tool AZURE_REPOS_SERVER</t>
+  </si>
+  <si>
+    <t>Give me the details of pull request for number '411'</t>
+  </si>
+  <si>
     <t>Show me all branches in the toolName AZURE_REPOS_SERVER.</t>
   </si>
   <si>
@@ -564,379 +620,202 @@
   </si>
   <si>
     <t>What is the average time taken to resolve a bug within a sprint?</t>
+  </si>
+  <si>
+    <t>How many tasks have been completed by each user in the last 7 days?</t>
+  </si>
+  <si>
+    <t>Which repositories have no active branches?</t>
+  </si>
+  <si>
+    <t>What is the average number of story points completed per sprint?</t>
+  </si>
+  <si>
+    <t>Which users have resolved more than 5 high-severity bugs in active sprints?</t>
+  </si>
+  <si>
+    <t>What is the total number of unassigned bugs across all active sprints?</t>
+  </si>
+  <si>
+    <t>List all repositories where the most recent branch was created more than 30 days ago.</t>
+  </si>
+  <si>
+    <t>How many tasks have been flagged as critical across all projects?</t>
+  </si>
+  <si>
+    <t>Which tools have the highest number of unresolved alerts?</t>
+  </si>
+  <si>
+    <t>What is the distribution of pull request statuses across all repositories?</t>
+  </si>
+  <si>
+    <t>How many pull requests have been merged in the last 30 days?</t>
+  </si>
+  <si>
+    <t>Which projects have the highest number of open tasks?</t>
+  </si>
+  <si>
+    <t>What is the percentage of completed tasks for each project in the active sprint?</t>
+  </si>
+  <si>
+    <t>What is the total number of tasks assigned to each user in the last 30 days?</t>
+  </si>
+  <si>
+    <t>How many pull requests were rejected in the last week?</t>
+  </si>
+  <si>
+    <t>List all projects with their corresponding sprint velocities.</t>
+  </si>
+  <si>
+    <t>Which users have resolved more than 10 bugs in the last month?</t>
+  </si>
+  <si>
+    <t>Which tools have the highest number of unresolved alerts in the last 7 days?</t>
+  </si>
+  <si>
+    <t>What is the average time taken to complete a task in each project?</t>
+  </si>
+  <si>
+    <t>List all repositories where the most recent branch was created more than 60 days ago.</t>
+  </si>
+  <si>
+    <t>Which users have the highest number of open tasks?</t>
+  </si>
+  <si>
+    <t>What is the percentage of completed tasks for each project in active sprints?</t>
+  </si>
+  <si>
+    <t>Which repositories have the most branches created in the last 30 days?</t>
+  </si>
+  <si>
+    <t>Which users have resolved more than 5 high-severity bugs in the last 30 days?</t>
+  </si>
+  <si>
+    <t>List all repositories where the most recent branch was created more than 90 days ago.</t>
+  </si>
+  <si>
+    <t>Which tools have the highest number of unresolved alerts in the last 30 days?</t>
+  </si>
+  <si>
+    <t>Which users have resolved more than 10 bugs in active sprints?</t>
+  </si>
+  <si>
+    <t>What is the percentage of completed tasks for each project in the current sprint?</t>
+  </si>
+  <si>
+    <t>What is the distribution of unresolved alerts across tools, grouped by severity in the last 30 days?</t>
+  </si>
+  <si>
+    <t>Identify sprints where the ratio of completed tasks to planned tasks is below 50%, and recommend corrective actions.</t>
+  </si>
+  <si>
+    <t>Find all users who have resolved more bugs than tasks in active sprints, and calculate their productivity score.</t>
+  </si>
+  <si>
+    <t>Which projects have the highest variance in sprint velocities over the last 6 months?</t>
+  </si>
+  <si>
+    <t>What is the average number of tasks completed per user across all active sprints?</t>
+  </si>
+  <si>
+    <t>Which repositories have the highest ratio of inactive branches to active branches?</t>
+  </si>
+  <si>
+    <t>Find all tools where more than 50% of branches are inactive.</t>
+  </si>
+  <si>
+    <t>Which users have resolved bugs faster than the sprint average resolution time?</t>
+  </si>
+  <si>
+    <t>Find the page name for alerts with alert_id 'KN_SYS_0009'.</t>
+  </si>
+  <si>
+    <t>List all notifications for user naveenr@kine.ai that are unread.</t>
+  </si>
+  <si>
+    <t>Count the number of active notifications for each emai_id.</t>
+  </si>
+  <si>
+    <t>Get the latest notification generated for email_id 'dhumal.o@kine.ai'</t>
+  </si>
+  <si>
+    <t>Find all branches in the repository RepoB.</t>
+  </si>
+  <si>
+    <t>Retrieve bugs reported by user DESKTOP27\Rohit that are still open.</t>
+  </si>
+  <si>
+    <t>List all commits made in the repository Hy_Project after January 1, 2023.</t>
+  </si>
+  <si>
+    <t>Count the total number of lines added in commits for each repository.</t>
+  </si>
+  <si>
+    <t>Calculate the average duration of successful CI/CD tasks.</t>
+  </si>
+  <si>
+    <t>Retrieve distinct bugs reported by user DESKTOP27\Rohit that are still open.</t>
+  </si>
+  <si>
+    <t>Find distinct pull requests merged by DESKTOP27\Hyma.</t>
+  </si>
+  <si>
+    <t>Get the list of distinct team members who are admins in their respective teams.</t>
+  </si>
+  <si>
+    <t>Find all distinct CI/CD pipelines that failed in the last 7 days.</t>
+  </si>
+  <si>
+    <t>List all distinct tasks executed in pipeline 328</t>
+  </si>
+  <si>
+    <t>Retrieve all distinct users who are super admins.</t>
+  </si>
+  <si>
+    <t>List all distinct projects using the SCRUM methodology.</t>
+  </si>
+  <si>
+    <t>Retrieve all distinct activities where the number of files changed is greater than 10.</t>
+  </si>
+  <si>
+    <t>Find all pull requests where the reviewer is also the author of the associated commits.</t>
+  </si>
+  <si>
+    <t>List all tasks assigned to users who are also responsible for managing projects.</t>
+  </si>
+  <si>
+    <t>are we going to complete the active sprint on time?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -945,318 +824,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1267,10 +864,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1308,71 +905,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1400,7 +997,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1423,11 +1020,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1436,13 +1033,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1452,7 +1049,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1461,7 +1058,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1470,7 +1067,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1478,10 +1075,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1541,927 +1138,1330 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A180"/>
+  <dimension ref="A1:A261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.578125" style="2" customWidth="1"/>
+    <col min="1" max="1" style="3" width="36.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A5" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A6" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A8" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A9" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A10" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A11" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A12" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="28.5" customFormat="1" s="1">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A13" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A14" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="28.5" customFormat="1" s="1">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A15" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A16" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="28.5" customFormat="1" s="1">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A17" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="39.75" customFormat="1" s="1">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A18" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="28.5" customFormat="1" s="1">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A19" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="28.5" customFormat="1" s="1">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A20" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="28.5" customFormat="1" s="1">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A21" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="28.5" customFormat="1" s="1">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A22" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="28.5" customFormat="1" s="1">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A23" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="28.5" customFormat="1" s="1">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A24" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A25" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A26" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A27" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A28" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A29" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A30" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A31" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A32" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A33" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A34" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A35" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A36" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A37" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A38" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A39" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A40" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A41" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A42" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A43" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A44" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A45" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A46" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A47" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A48" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A49" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A50" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A51" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A52" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A53" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A54" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A55" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A56" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A57" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A58" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A59" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A60" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A61" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A62" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A63" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A64" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A65" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A66" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A67" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A68" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A69" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A70" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A71" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A72" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A73" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A74" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A75" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A76" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A77" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A78" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A79" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A80" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A81" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A82" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A83" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A84" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A85" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A86" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A87" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A88" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A89" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A90" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A91" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A92" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A93" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A94" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A95" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A96" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A97" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A98" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A99" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A100" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A101" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A102" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A103" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A104" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A105" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A106" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A107" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A108" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A109" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A110" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A111" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A112" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A113" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A113" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A114" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A115" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A116" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A117" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A118" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A119" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A119" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A120" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A121" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A121" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A122" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A123" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A124" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A125" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A125" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A126" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A126" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A127" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A127" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A128" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A128" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A129" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A129" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A130" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A130" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A131" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A131" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A132" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A133" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A133" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A134" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A134" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A135" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A135" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A136" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A137" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A137" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A138" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A138" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A139" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A139" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A140" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A140" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A141" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A141" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A142" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A142" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A143" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A143" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A144" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A144" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A145" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A145" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A146" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A146" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A147" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A147" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A148" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A148" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A149" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A149" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A150" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A151" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A152" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A152" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A153" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A153" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A154" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A154" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A155" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A155" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A156" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A156" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A157" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A157" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A158" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A158" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A159" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A159" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A160" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A160" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="161" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A161" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A161" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A162" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A162" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A163" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A163" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A164" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A164" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A165" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A165" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A166" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A166" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A167" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A167" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A168" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A168" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A169" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A169" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A170" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A170" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A171" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A171" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="172" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A172" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A172" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="173" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A173" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="174" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A174" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A174" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="175" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A175" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A175" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="176" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A176" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A176" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="177" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A177" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A177" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="178" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A178" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A178" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A179" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A179" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="180" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A180" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A180" s="2" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A181" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A182" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A183" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A184" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A185" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A186" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A187" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A188" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A189" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A190" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A191" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A192" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A193" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A194" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A195" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A196" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A197" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A198" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A199" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A200" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A201" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A202" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A203" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A204" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A205" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A206" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A207" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A208" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A209" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A210" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A211" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A212" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A213" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A214" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A215" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A216" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A217" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A218" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A219" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A220" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A221" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A222" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A223" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A224" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A225" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A226" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A227" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A228" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A229" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A230" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A231" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A232" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A233" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A234" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A235" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A236" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A237" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A238" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A239" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A240" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A241" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A242" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A243" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A244" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A245" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A246" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A247" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A248" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A249" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A250" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A251" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A252" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A253" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A254" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A255" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A256" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A257" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A258" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A259" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A260" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A261" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>